--- a/MainTop/20.01.2026 Таня ВБ/spros_print_sorted_print_sorted.xlsx
+++ b/MainTop/20.01.2026 Таня ВБ/spros_print_sorted_print_sorted.xlsx
@@ -5,17 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\20.01.2026 Таня ВБ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\20.01.2026 Таня ВБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA1A91E-DDC6-4BFD-A4CB-F89E700B71C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B0D799-1C8C-45D2-AC67-D7EEA3752C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -480,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -491,6 +502,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -793,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,9 +816,10 @@
     <col min="1" max="1" width="42" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,8 +832,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -833,8 +847,16 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="8">
+        <f>B2/4</f>
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <f>B2/4</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -847,8 +869,12 @@
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="8">
+        <f t="shared" ref="E3:E66" si="0">B3/4</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -861,8 +887,12 @@
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -875,8 +905,12 @@
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -889,8 +923,12 @@
       <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -903,8 +941,12 @@
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -917,8 +959,12 @@
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -931,8 +977,12 @@
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -945,8 +995,12 @@
       <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -959,8 +1013,12 @@
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -973,8 +1031,12 @@
       <c r="D12" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -987,8 +1049,12 @@
       <c r="D13" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -1001,8 +1067,12 @@
       <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -1015,8 +1085,12 @@
       <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -1029,8 +1103,12 @@
       <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -1043,8 +1121,12 @@
       <c r="D17" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1057,8 +1139,12 @@
       <c r="D18" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -1071,8 +1157,12 @@
       <c r="D19" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
@@ -1085,8 +1175,12 @@
       <c r="D20" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
@@ -1099,8 +1193,12 @@
       <c r="D21" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -1113,8 +1211,12 @@
       <c r="D22" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
@@ -1127,8 +1229,12 @@
       <c r="D23" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>28</v>
       </c>
@@ -1141,8 +1247,12 @@
       <c r="D24" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -1155,8 +1265,12 @@
       <c r="D25" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
@@ -1169,8 +1283,12 @@
       <c r="D26" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
@@ -1183,8 +1301,12 @@
       <c r="D27" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>32</v>
       </c>
@@ -1197,8 +1319,12 @@
       <c r="D28" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>33</v>
       </c>
@@ -1211,8 +1337,12 @@
       <c r="D29" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
@@ -1225,8 +1355,12 @@
       <c r="D30" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
@@ -1239,8 +1373,12 @@
       <c r="D31" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>36</v>
       </c>
@@ -1253,8 +1391,12 @@
       <c r="D32" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
@@ -1267,8 +1409,12 @@
       <c r="D33" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>38</v>
       </c>
@@ -1281,8 +1427,12 @@
       <c r="D34" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
@@ -1295,8 +1445,12 @@
       <c r="D35" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>40</v>
       </c>
@@ -1309,8 +1463,12 @@
       <c r="D36" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>41</v>
       </c>
@@ -1323,8 +1481,12 @@
       <c r="D37" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>42</v>
       </c>
@@ -1337,8 +1499,12 @@
       <c r="D38" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>43</v>
       </c>
@@ -1351,8 +1517,12 @@
       <c r="D39" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>44</v>
       </c>
@@ -1365,8 +1535,12 @@
       <c r="D40" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>45</v>
       </c>
@@ -1379,8 +1553,12 @@
       <c r="D41" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>46</v>
       </c>
@@ -1393,8 +1571,12 @@
       <c r="D42" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>47</v>
       </c>
@@ -1407,8 +1589,12 @@
       <c r="D43" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
@@ -1421,8 +1607,12 @@
       <c r="D44" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>49</v>
       </c>
@@ -1435,8 +1625,12 @@
       <c r="D45" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>50</v>
       </c>
@@ -1449,8 +1643,12 @@
       <c r="D46" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>51</v>
       </c>
@@ -1463,8 +1661,12 @@
       <c r="D47" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>52</v>
       </c>
@@ -1477,8 +1679,12 @@
       <c r="D48" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>53</v>
       </c>
@@ -1491,8 +1697,12 @@
       <c r="D49" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>54</v>
       </c>
@@ -1505,8 +1715,12 @@
       <c r="D50" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>55</v>
       </c>
@@ -1519,8 +1733,12 @@
       <c r="D51" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>56</v>
       </c>
@@ -1533,8 +1751,12 @@
       <c r="D52" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>57</v>
       </c>
@@ -1547,8 +1769,12 @@
       <c r="D53" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>58</v>
       </c>
@@ -1561,8 +1787,12 @@
       <c r="D54" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>59</v>
       </c>
@@ -1575,8 +1805,12 @@
       <c r="D55" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>60</v>
       </c>
@@ -1589,8 +1823,12 @@
       <c r="D56" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>61</v>
       </c>
@@ -1603,8 +1841,12 @@
       <c r="D57" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>62</v>
       </c>
@@ -1617,8 +1859,12 @@
       <c r="D58" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>63</v>
       </c>
@@ -1631,8 +1877,12 @@
       <c r="D59" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>64</v>
       </c>
@@ -1645,8 +1895,12 @@
       <c r="D60" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>65</v>
       </c>
@@ -1659,8 +1913,12 @@
       <c r="D61" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>66</v>
       </c>
@@ -1673,8 +1931,12 @@
       <c r="D62" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>67</v>
       </c>
@@ -1687,8 +1949,12 @@
       <c r="D63" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>68</v>
       </c>
@@ -1701,8 +1967,12 @@
       <c r="D64" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>69</v>
       </c>
@@ -1715,8 +1985,12 @@
       <c r="D65" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>70</v>
       </c>
@@ -1729,8 +2003,12 @@
       <c r="D66" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>71</v>
       </c>
@@ -1743,8 +2021,12 @@
       <c r="D67" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="8">
+        <f t="shared" ref="E67:E116" si="1">B67/4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>72</v>
       </c>
@@ -1757,8 +2039,12 @@
       <c r="D68" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>73</v>
       </c>
@@ -1771,8 +2057,12 @@
       <c r="D69" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>74</v>
       </c>
@@ -1785,8 +2075,12 @@
       <c r="D70" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>75</v>
       </c>
@@ -1799,8 +2093,12 @@
       <c r="D71" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>76</v>
       </c>
@@ -1813,8 +2111,12 @@
       <c r="D72" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>77</v>
       </c>
@@ -1827,8 +2129,12 @@
       <c r="D73" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>78</v>
       </c>
@@ -1841,8 +2147,12 @@
       <c r="D74" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>79</v>
       </c>
@@ -1855,8 +2165,12 @@
       <c r="D75" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>80</v>
       </c>
@@ -1869,8 +2183,12 @@
       <c r="D76" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>81</v>
       </c>
@@ -1883,8 +2201,12 @@
       <c r="D77" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>82</v>
       </c>
@@ -1897,8 +2219,12 @@
       <c r="D78" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>83</v>
       </c>
@@ -1911,8 +2237,12 @@
       <c r="D79" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>85</v>
       </c>
@@ -1925,8 +2255,12 @@
       <c r="D80" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>86</v>
       </c>
@@ -1939,8 +2273,12 @@
       <c r="D81" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>87</v>
       </c>
@@ -1953,8 +2291,12 @@
       <c r="D82" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>88</v>
       </c>
@@ -1967,8 +2309,12 @@
       <c r="D83" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>89</v>
       </c>
@@ -1981,8 +2327,12 @@
       <c r="D84" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>90</v>
       </c>
@@ -1995,8 +2345,12 @@
       <c r="D85" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>91</v>
       </c>
@@ -2009,8 +2363,12 @@
       <c r="D86" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>92</v>
       </c>
@@ -2023,8 +2381,12 @@
       <c r="D87" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>93</v>
       </c>
@@ -2037,8 +2399,12 @@
       <c r="D88" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>94</v>
       </c>
@@ -2051,8 +2417,12 @@
       <c r="D89" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>95</v>
       </c>
@@ -2065,8 +2435,12 @@
       <c r="D90" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>96</v>
       </c>
@@ -2079,8 +2453,12 @@
       <c r="D91" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>97</v>
       </c>
@@ -2093,8 +2471,12 @@
       <c r="D92" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>98</v>
       </c>
@@ -2107,8 +2489,12 @@
       <c r="D93" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>99</v>
       </c>
@@ -2121,8 +2507,12 @@
       <c r="D94" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>100</v>
       </c>
@@ -2135,8 +2525,12 @@
       <c r="D95" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>101</v>
       </c>
@@ -2149,8 +2543,12 @@
       <c r="D96" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>102</v>
       </c>
@@ -2163,8 +2561,12 @@
       <c r="D97" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>103</v>
       </c>
@@ -2177,8 +2579,12 @@
       <c r="D98" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>104</v>
       </c>
@@ -2191,8 +2597,12 @@
       <c r="D99" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>105</v>
       </c>
@@ -2205,8 +2615,12 @@
       <c r="D100" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>106</v>
       </c>
@@ -2219,8 +2633,12 @@
       <c r="D101" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>107</v>
       </c>
@@ -2233,8 +2651,12 @@
       <c r="D102" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>108</v>
       </c>
@@ -2247,8 +2669,12 @@
       <c r="D103" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>109</v>
       </c>
@@ -2261,8 +2687,12 @@
       <c r="D104" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>110</v>
       </c>
@@ -2275,8 +2705,12 @@
       <c r="D105" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>111</v>
       </c>
@@ -2289,8 +2723,12 @@
       <c r="D106" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>112</v>
       </c>
@@ -2303,8 +2741,12 @@
       <c r="D107" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>113</v>
       </c>
@@ -2317,8 +2759,12 @@
       <c r="D108" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>114</v>
       </c>
@@ -2331,8 +2777,12 @@
       <c r="D109" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>115</v>
       </c>
@@ -2345,8 +2795,12 @@
       <c r="D110" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>116</v>
       </c>
@@ -2359,8 +2813,12 @@
       <c r="D111" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>117</v>
       </c>
@@ -2373,8 +2831,12 @@
       <c r="D112" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>118</v>
       </c>
@@ -2387,8 +2849,12 @@
       <c r="D113" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>119</v>
       </c>
@@ -2401,8 +2867,12 @@
       <c r="D114" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>121</v>
       </c>
@@ -2415,8 +2885,12 @@
       <c r="D115" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>122</v>
       </c>
@@ -2428,6 +2902,10 @@
       </c>
       <c r="D116" s="7" t="s">
         <v>6</v>
+      </c>
+      <c r="E116" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
